--- a/0_1_Output_Data/2_YoY_Forecast_Vectors/forecast_series_yoy_AVERAGE_1_6_summer.xlsx
+++ b/0_1_Output_Data/2_YoY_Forecast_Vectors/forecast_series_yoy_AVERAGE_1_6_summer.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,138 +417,631 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>40310</v>
+        <v>32689</v>
       </c>
       <c r="B2">
-        <v>2010</v>
+        <v>1989</v>
       </c>
       <c r="C2">
-        <v>1.015241516888299</v>
+        <v>4.538060149740408</v>
       </c>
       <c r="D2">
-        <v>2011</v>
+        <v>1990</v>
       </c>
       <c r="E2">
-        <v>0.646969966709543</v>
+        <v>4.166113144878114</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>40676</v>
+        <v>33054</v>
       </c>
       <c r="B3">
-        <v>2011</v>
+        <v>1990</v>
       </c>
       <c r="C3">
-        <v>5.033263200693927</v>
+        <v>6.800911833344525</v>
       </c>
       <c r="D3">
-        <v>2012</v>
+        <v>1991</v>
       </c>
       <c r="E3">
-        <v>6.13293474934542</v>
+        <v>8.556235165581928</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>41044</v>
+        <v>33419</v>
       </c>
       <c r="B4">
-        <v>2012</v>
+        <v>1991</v>
       </c>
       <c r="C4">
-        <v>1.503844100497154</v>
+        <v>9.766134003411263</v>
       </c>
       <c r="D4">
-        <v>2013</v>
+        <v>1992</v>
       </c>
       <c r="E4">
-        <v>2.056299233127379</v>
+        <v>11.49866806009594</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>41409</v>
+        <v>33785</v>
       </c>
       <c r="B5">
-        <v>2013</v>
+        <v>1992</v>
       </c>
       <c r="C5">
-        <v>-0.21382081602489</v>
+        <v>4.065098651808263</v>
       </c>
       <c r="D5">
-        <v>2014</v>
+        <v>1993</v>
       </c>
       <c r="E5">
-        <v>0.2533820729693437</v>
+        <v>5.505010735461169</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>41774</v>
+        <v>34150</v>
       </c>
       <c r="B6">
-        <v>2014</v>
+        <v>1993</v>
       </c>
       <c r="C6">
-        <v>2.703038888817888</v>
+        <v>-4.574773025041534</v>
       </c>
       <c r="D6">
-        <v>2015</v>
+        <v>1994</v>
       </c>
       <c r="E6">
-        <v>3.312051968962471</v>
+        <v>-6.967769129310131</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>42137</v>
+        <v>34515</v>
       </c>
       <c r="B7">
-        <v>2015</v>
+        <v>1994</v>
       </c>
       <c r="C7">
-        <v>1.221982741572325</v>
+        <v>3.361963408542512</v>
       </c>
       <c r="D7">
-        <v>2016</v>
+        <v>1995</v>
       </c>
       <c r="E7">
-        <v>1.093658812337583</v>
+        <v>4.79430739457769</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>42503</v>
+        <v>34880</v>
       </c>
       <c r="B8">
-        <v>2016</v>
+        <v>1995</v>
       </c>
       <c r="C8">
-        <v>2.120249189810353</v>
+        <v>1.621682589716311</v>
       </c>
       <c r="D8">
-        <v>2017</v>
+        <v>1996</v>
       </c>
       <c r="E8">
-        <v>2.687921959655437</v>
+        <v>0.8577889514605141</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
+        <v>35221</v>
+      </c>
+      <c r="B9">
+        <v>1996</v>
+      </c>
+      <c r="C9">
+        <v>-0.8033535472972142</v>
+      </c>
+      <c r="D9">
+        <v>1997</v>
+      </c>
+      <c r="E9">
+        <v>-1.47133593941452</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="2">
+        <v>35586</v>
+      </c>
+      <c r="B10">
+        <v>1997</v>
+      </c>
+      <c r="C10">
+        <v>1.913978135611183</v>
+      </c>
+      <c r="D10">
+        <v>1998</v>
+      </c>
+      <c r="E10">
+        <v>1.772867810894851</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="2">
+        <v>35950</v>
+      </c>
+      <c r="B11">
+        <v>1998</v>
+      </c>
+      <c r="C11">
+        <v>3.242370775602921</v>
+      </c>
+      <c r="D11">
+        <v>1999</v>
+      </c>
+      <c r="E11">
+        <v>3.863794297552592</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="2">
+        <v>36319</v>
+      </c>
+      <c r="B12">
+        <v>1999</v>
+      </c>
+      <c r="C12">
+        <v>1.226353217902165</v>
+      </c>
+      <c r="D12">
+        <v>2000</v>
+      </c>
+      <c r="E12">
+        <v>1.764569308912689</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="2">
+        <v>36676</v>
+      </c>
+      <c r="B13">
+        <v>2000</v>
+      </c>
+      <c r="C13">
+        <v>2.627339038007115</v>
+      </c>
+      <c r="D13">
+        <v>2001</v>
+      </c>
+      <c r="E13">
+        <v>2.664699377218405</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="2">
+        <v>37034</v>
+      </c>
+      <c r="B14">
+        <v>2001</v>
+      </c>
+      <c r="C14">
+        <v>1.524696920689772</v>
+      </c>
+      <c r="D14">
+        <v>2002</v>
+      </c>
+      <c r="E14">
+        <v>1.49121933108034</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="2">
+        <v>37399</v>
+      </c>
+      <c r="B15">
+        <v>2002</v>
+      </c>
+      <c r="C15">
+        <v>0.1611176198738296</v>
+      </c>
+      <c r="D15">
+        <v>2003</v>
+      </c>
+      <c r="E15">
+        <v>0.6814285414738386</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="2">
+        <v>37756</v>
+      </c>
+      <c r="B16">
+        <v>2003</v>
+      </c>
+      <c r="C16">
+        <v>-0.4006528521986796</v>
+      </c>
+      <c r="D16">
+        <v>2004</v>
+      </c>
+      <c r="E16">
+        <v>-0.9049262643124001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="2">
+        <v>38120</v>
+      </c>
+      <c r="B17">
+        <v>2004</v>
+      </c>
+      <c r="C17">
+        <v>1.364958142242334</v>
+      </c>
+      <c r="D17">
+        <v>2005</v>
+      </c>
+      <c r="E17">
+        <v>1.767600876148467</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="2">
+        <v>38484</v>
+      </c>
+      <c r="B18">
+        <v>2005</v>
+      </c>
+      <c r="C18">
+        <v>2.565101731346275</v>
+      </c>
+      <c r="D18">
+        <v>2006</v>
+      </c>
+      <c r="E18">
+        <v>4.242290614102995</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="2">
+        <v>38848</v>
+      </c>
+      <c r="B19">
+        <v>2006</v>
+      </c>
+      <c r="C19">
+        <v>1.347891148340952</v>
+      </c>
+      <c r="D19">
+        <v>2007</v>
+      </c>
+      <c r="E19">
+        <v>1.469426281897124</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="2">
+        <v>39217</v>
+      </c>
+      <c r="B20">
+        <v>2007</v>
+      </c>
+      <c r="C20">
+        <v>2.757326331892296</v>
+      </c>
+      <c r="D20">
+        <v>2008</v>
+      </c>
+      <c r="E20">
+        <v>2.058412084622763</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="2">
+        <v>39583</v>
+      </c>
+      <c r="B21">
+        <v>2008</v>
+      </c>
+      <c r="C21">
+        <v>4.474000753162399</v>
+      </c>
+      <c r="D21">
+        <v>2009</v>
+      </c>
+      <c r="E21">
+        <v>6.253706431797412</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="2">
+        <v>39948</v>
+      </c>
+      <c r="B22">
+        <v>2009</v>
+      </c>
+      <c r="C22">
+        <v>-11.03055520881762</v>
+      </c>
+      <c r="D22">
+        <v>2010</v>
+      </c>
+      <c r="E22">
+        <v>-14.35805385789363</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="2">
+        <v>40310</v>
+      </c>
+      <c r="B23">
+        <v>2010</v>
+      </c>
+      <c r="C23">
+        <v>1.015241516888299</v>
+      </c>
+      <c r="D23">
+        <v>2011</v>
+      </c>
+      <c r="E23">
+        <v>0.646969966709543</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="2">
+        <v>40676</v>
+      </c>
+      <c r="B24">
+        <v>2011</v>
+      </c>
+      <c r="C24">
+        <v>5.033263200693927</v>
+      </c>
+      <c r="D24">
+        <v>2012</v>
+      </c>
+      <c r="E24">
+        <v>6.13293474934542</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="2">
+        <v>41044</v>
+      </c>
+      <c r="B25">
+        <v>2012</v>
+      </c>
+      <c r="C25">
+        <v>1.503844100497154</v>
+      </c>
+      <c r="D25">
+        <v>2013</v>
+      </c>
+      <c r="E25">
+        <v>2.056299233127379</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="2">
+        <v>41409</v>
+      </c>
+      <c r="B26">
+        <v>2013</v>
+      </c>
+      <c r="C26">
+        <v>-0.21382081602489</v>
+      </c>
+      <c r="D26">
+        <v>2014</v>
+      </c>
+      <c r="E26">
+        <v>0.2533820729693437</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="2">
+        <v>41774</v>
+      </c>
+      <c r="B27">
+        <v>2014</v>
+      </c>
+      <c r="C27">
+        <v>2.703038888817888</v>
+      </c>
+      <c r="D27">
+        <v>2015</v>
+      </c>
+      <c r="E27">
+        <v>3.312051968962471</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="2">
+        <v>42137</v>
+      </c>
+      <c r="B28">
+        <v>2015</v>
+      </c>
+      <c r="C28">
+        <v>1.221982741572325</v>
+      </c>
+      <c r="D28">
+        <v>2016</v>
+      </c>
+      <c r="E28">
+        <v>1.093658812337583</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="2">
+        <v>42503</v>
+      </c>
+      <c r="B29">
+        <v>2016</v>
+      </c>
+      <c r="C29">
+        <v>2.120249189810353</v>
+      </c>
+      <c r="D29">
+        <v>2017</v>
+      </c>
+      <c r="E29">
+        <v>2.687921959655437</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="2">
         <v>42867</v>
       </c>
-      <c r="B9">
+      <c r="B30">
         <v>2017</v>
       </c>
-      <c r="C9">
+      <c r="C30">
         <v>2.043020013918806</v>
       </c>
-      <c r="D9">
+      <c r="D30">
         <v>2018</v>
       </c>
-      <c r="E9">
+      <c r="E30">
         <v>2.445700453197119</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="2">
+        <v>43235</v>
+      </c>
+      <c r="B31">
+        <v>2018</v>
+      </c>
+      <c r="C31">
+        <v>1.732765887893239</v>
+      </c>
+      <c r="D31">
+        <v>2019</v>
+      </c>
+      <c r="E31">
+        <v>1.194436089410544</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="2">
+        <v>43600</v>
+      </c>
+      <c r="B32">
+        <v>2019</v>
+      </c>
+      <c r="C32">
+        <v>1.091657448782768</v>
+      </c>
+      <c r="D32">
+        <v>2020</v>
+      </c>
+      <c r="E32">
+        <v>1.708245691487176</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="2">
+        <v>43966</v>
+      </c>
+      <c r="B33">
+        <v>2020</v>
+      </c>
+      <c r="C33">
+        <v>-5.439093160905695</v>
+      </c>
+      <c r="D33">
+        <v>2021</v>
+      </c>
+      <c r="E33">
+        <v>-8.595406358054724</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="2">
+        <v>44341</v>
+      </c>
+      <c r="B34">
+        <v>2021</v>
+      </c>
+      <c r="C34">
+        <v>-2.562843444346952</v>
+      </c>
+      <c r="D34">
+        <v>2022</v>
+      </c>
+      <c r="E34">
+        <v>-7.034199224108995</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="2">
+        <v>44706</v>
+      </c>
+      <c r="B35">
+        <v>2022</v>
+      </c>
+      <c r="C35">
+        <v>1.695914144558275</v>
+      </c>
+      <c r="D35">
+        <v>2023</v>
+      </c>
+      <c r="E35">
+        <v>0.9449497347025382</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="2">
+        <v>45071</v>
+      </c>
+      <c r="B36">
+        <v>2023</v>
+      </c>
+      <c r="C36">
+        <v>-1.031098731795621</v>
+      </c>
+      <c r="D36">
+        <v>2024</v>
+      </c>
+      <c r="E36">
+        <v>-1.334179412476999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="2">
+        <v>45436</v>
+      </c>
+      <c r="B37">
+        <v>2024</v>
+      </c>
+      <c r="C37">
+        <v>0.2094135779914019</v>
+      </c>
+      <c r="D37">
+        <v>2025</v>
+      </c>
+      <c r="E37">
+        <v>0.8571246491080542</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="2">
+        <v>45800</v>
+      </c>
+      <c r="B38">
+        <v>2025</v>
+      </c>
+      <c r="C38">
+        <v>0.8596336419319561</v>
+      </c>
+      <c r="D38">
+        <v>2026</v>
+      </c>
+      <c r="E38">
+        <v>1.656917693245807</v>
       </c>
     </row>
   </sheetData>
